--- a/infograf/infograf3.xlsx
+++ b/infograf/infograf3.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Documents\Git\SortData\infograf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0B9D2-B8E4-47EC-995A-EB44540F2B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -333,8 +327,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +376,729 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rating:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>Example_DHbiIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Example_6HNV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Example_diEckaR6U</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Example_M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Example_HGtr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Example_V</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Example_6wJ0JSfQ9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Example_7S</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Example_w1A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Example_OQqJmh</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_e3Ab0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Example_Ftpz51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Example_lU8OD05S5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Example_CVenuBg3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Example_dLAt7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Example_QmoEgzMJ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Example_IS78D</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Example_RjR000qT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Example_uZ6Hii</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Example_FNA</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Example_W2r</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Example_LwaXngxhP</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Example_pw</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Example_4DRqMFm1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Example_oGWQ</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Example_IgEz</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Example_kI7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Example_lBjiug5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Example_d3pQ</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Example_BkDv</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Example_m</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Example_EpM</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Example_dXl9H8T1e</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Example_uPyx</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Example_tFsBZA4SI</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Example_AT9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Example_EqMibZ</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Example_lz</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Example_dF81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Example_Fbg3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Example_cls0H</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Example_Jt</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Example_gOH3dESv</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Example_4QxLSFvN9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Example_w</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Example_TFXy</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Example_jAFClewc1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Example_4u</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Example_xARO</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Example_w</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Example_0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Example_jtg3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Example_vZy</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Example_G</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Example_YK</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Example_mJwpWTU</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Example_bBfDyNB0O</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Example_zNTakfLX2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Example_OL</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Example_0UkbPky</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Example_viEhE6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Example_xbl5YHW</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Example_klHFQ3i</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Example_al</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Example_25Tp</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Example_KO3Nv9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Example_0v6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Example_WL</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Example_QRuunOC8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Example_HEk</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Example_bFbn</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Example_KlSBkm</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Example_JDzdeC</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Example_XpQOjm</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Example_OD2LFxLU</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Example_aJ</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Example_vWgCIXR</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Example_2Y</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Example_SUkr</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Example_yGX1C</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Example_oG9cQ</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Example_ykl8Dos</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Example_Z9WQF8r</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Example_z</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Example_R6mTN</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Example_15xtNgW6F</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Example_8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Example_j8OdY</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Example_V5DgpV</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Example_1ZRgfTy3J</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Example_xIIFN</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Example_U67</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Example_pJLv</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Example_bKySw</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Example_pWQW7GB76</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Example_Q</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Example_LQ3QPYlC</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Example_EMQfcvcC</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Example_kB7Jtqg5O</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Example_TJyYEJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$1:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="126747008"/>
+        <c:axId val="126748544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126747008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126748544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126748544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126747008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -425,7 +1142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -460,7 +1177,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -637,23 +1354,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+      <selection activeCell="D1" sqref="D1:D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +1384,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +1398,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +1412,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -709,7 +1426,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -723,7 +1440,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -737,7 +1454,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -751,7 +1468,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -765,7 +1482,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -779,7 +1496,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -793,7 +1510,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -807,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -821,7 +1538,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1552,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1566,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -863,7 +1580,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -877,7 +1594,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -891,7 +1608,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -905,7 +1622,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -919,7 +1636,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -933,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -947,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1678,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1692,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1706,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1720,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1734,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1748,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1762,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1790,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1804,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1818,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1832,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1846,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1860,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1874,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1888,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1902,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1916,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1930,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1944,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1958,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1972,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1986,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +2000,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +2014,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +2056,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +2070,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +2084,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +2098,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +2112,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +2126,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +2140,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +2154,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +2168,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +2182,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +2196,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +2238,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +2252,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +2266,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +2280,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +2294,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +2308,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +2322,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +2336,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +2350,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +2364,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2378,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +2392,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +2406,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +2434,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +2448,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +2462,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +2476,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +2490,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +2504,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +2518,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +2532,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +2546,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +2560,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +2574,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +2588,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +2602,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +2616,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +2644,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +2658,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +2672,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2686,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +2700,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2714,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2728,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2742,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2756,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2055,5 +2772,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>